--- a/medicine/Handicap/Des_tas_de_choses/Des_tas_de_choses.xlsx
+++ b/medicine/Handicap/Des_tas_de_choses/Des_tas_de_choses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Des tas de choses est un film suisse réalisé par Germinal Roaux, sorti en 2004.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce film documentaire suit la vie de Thomas, un jeune trisomique de 26 ans qui est serveur dans une auberge communale à Satigny (Suisse).
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Des tas de choses
 Réalisation : Germinal Roaux
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thomas Bouchardy</t>
         </is>
@@ -610,7 +628,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le tournage a duré 8 mois.</t>
         </is>
@@ -640,7 +660,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce court métrage en noir et blanc qui raconte la vie et les aspirations d'un jeune trisomique genevois, a reçu le Prix du meilleur film étranger au Festival du film de Dakar ainsi qu'une nomination pour le Prix du cinéma suisse 2005.</t>
         </is>
